--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/99/word_level_predictions_99.xlsx
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>0</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
